--- a/FlaskBE/unanswered_questions.xlsx
+++ b/FlaskBE/unanswered_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,193 @@
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdsss</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>điểm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Điểm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Điểm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Điểm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Điểm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cách</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>quy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Điểm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Xây</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hiếu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FFF</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Điểm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Trường hợp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Các khía cạnh</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Các khía cạnh bao gồm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Các khía cạnh bao gồm: hoạt động, học tập, tích cực tham gia các hoạ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
